--- a/server/uploads/validated_output.xlsx
+++ b/server/uploads/validated_output.xlsx
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>

--- a/server/uploads/validated_output.xlsx
+++ b/server/uploads/validated_output.xlsx
@@ -502,7 +502,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -545,7 +545,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
